--- a/Code/Results/Cases/Case_5_95/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_95/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.24752533316893</v>
+        <v>28.72393179789144</v>
       </c>
       <c r="C2">
-        <v>13.09709201452178</v>
+        <v>9.747167794820477</v>
       </c>
       <c r="D2">
-        <v>6.013173725496594</v>
+        <v>4.276585547397751</v>
       </c>
       <c r="E2">
-        <v>5.518987457792078</v>
+        <v>9.78211633705458</v>
       </c>
       <c r="F2">
-        <v>66.84038728211887</v>
+        <v>66.8069703912669</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.774017376682465</v>
+        <v>10.43950258765046</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.489700940969999</v>
+        <v>12.05500587233376</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -462,31 +462,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.90441531182643</v>
+        <v>28.61399692459365</v>
       </c>
       <c r="C3">
-        <v>12.10087249244264</v>
+        <v>9.534477755564938</v>
       </c>
       <c r="D3">
-        <v>5.687762174587419</v>
+        <v>4.146541706474164</v>
       </c>
       <c r="E3">
-        <v>5.539998563709539</v>
+        <v>9.794217008429278</v>
       </c>
       <c r="F3">
-        <v>63.79768151002767</v>
+        <v>66.08808740486738</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.753411965042533</v>
+        <v>10.44178200816692</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.450030819929909</v>
+        <v>12.0963943050855</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -503,31 +503,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.07349433727314</v>
+        <v>28.55689149624337</v>
       </c>
       <c r="C4">
-        <v>11.46395529739868</v>
+        <v>9.4070637022956</v>
       </c>
       <c r="D4">
-        <v>5.483971251701552</v>
+        <v>4.064582800197979</v>
       </c>
       <c r="E4">
-        <v>5.553791048732788</v>
+        <v>9.802104641717648</v>
       </c>
       <c r="F4">
-        <v>61.91617684119002</v>
+        <v>65.6518923055331</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.742366796228509</v>
+        <v>10.44364368826155</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.431830226674538</v>
+        <v>12.1242638691282</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -544,31 +544,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.7335694000606</v>
+        <v>28.5362516954</v>
       </c>
       <c r="C5">
-        <v>11.19784466481434</v>
+        <v>9.35603993239258</v>
       </c>
       <c r="D5">
-        <v>5.399917940932797</v>
+        <v>4.030685727209845</v>
       </c>
       <c r="E5">
-        <v>5.559631561429581</v>
+        <v>9.805434356480102</v>
       </c>
       <c r="F5">
-        <v>61.14632883943668</v>
+        <v>65.47556705947579</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.738244148078104</v>
+        <v>10.44451826866731</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.425898803085691</v>
+        <v>12.13623850365967</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -585,31 +585,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.6770549971883</v>
+        <v>28.53298380999414</v>
       </c>
       <c r="C6">
-        <v>11.1532550976419</v>
+        <v>9.347624623434696</v>
       </c>
       <c r="D6">
-        <v>5.385900371819553</v>
+        <v>4.025028065369259</v>
       </c>
       <c r="E6">
-        <v>5.560614551084817</v>
+        <v>9.805994235110377</v>
       </c>
       <c r="F6">
-        <v>61.01831727852305</v>
+        <v>65.44637804293765</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.737581730972487</v>
+        <v>10.4446704860639</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.425001833227233</v>
+        <v>12.13826417438754</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -626,31 +626,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.06891491387517</v>
+        <v>28.5566024674948</v>
       </c>
       <c r="C7">
-        <v>11.46039327013114</v>
+        <v>9.406371809385734</v>
       </c>
       <c r="D7">
-        <v>5.482841748290447</v>
+        <v>4.064127624220835</v>
       </c>
       <c r="E7">
-        <v>5.553868930295707</v>
+        <v>9.802149079559548</v>
       </c>
       <c r="F7">
-        <v>61.90580662476673</v>
+        <v>65.64950838521575</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.742309697031104</v>
+        <v>10.4436550141152</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.431744299602092</v>
+        <v>12.12442286306496</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -667,31 +667,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.7858345443066</v>
+        <v>28.68388029844533</v>
       </c>
       <c r="C8">
-        <v>12.75869353484868</v>
+        <v>9.673232263808956</v>
       </c>
       <c r="D8">
-        <v>5.901790742845646</v>
+        <v>4.232203536720889</v>
       </c>
       <c r="E8">
-        <v>5.526044218347137</v>
+        <v>9.786193835927357</v>
       </c>
       <c r="F8">
-        <v>65.79409295217485</v>
+        <v>66.55809279230863</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.76656295178333</v>
+        <v>10.44019245891575</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.47470599797323</v>
+        <v>12.06876652887398</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -708,31 +708,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.0981617440776</v>
+        <v>29.01500827744448</v>
       </c>
       <c r="C9">
-        <v>15.11587459996263</v>
+        <v>10.21740486231156</v>
       </c>
       <c r="D9">
-        <v>6.692996867766045</v>
+        <v>4.543739281661292</v>
       </c>
       <c r="E9">
-        <v>5.478798740626033</v>
+        <v>9.758523066601517</v>
       </c>
       <c r="F9">
-        <v>73.31429894681627</v>
+        <v>68.37569425621066</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.828175548773713</v>
+        <v>10.43708166561323</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.610837117758293</v>
+        <v>11.97913038574788</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -749,31 +749,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.61200556514386</v>
+        <v>29.30647077796345</v>
       </c>
       <c r="C10">
-        <v>16.75157598851328</v>
+        <v>10.62419420524055</v>
       </c>
       <c r="D10">
-        <v>7.259308795169114</v>
+        <v>4.760050035971878</v>
       </c>
       <c r="E10">
-        <v>5.448999473776556</v>
+        <v>9.740378253038157</v>
       </c>
       <c r="F10">
-        <v>78.79368762865195</v>
+        <v>69.72556874423762</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.884106096311114</v>
+        <v>10.43705738439154</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.74713462909813</v>
+        <v>11.92518198382263</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -790,31 +790,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.81815497458761</v>
+        <v>29.4491266366867</v>
       </c>
       <c r="C11">
-        <v>17.48011641611896</v>
+        <v>10.80961680102557</v>
       </c>
       <c r="D11">
-        <v>7.515007814298268</v>
+        <v>4.855444979788985</v>
       </c>
       <c r="E11">
-        <v>5.436653263264999</v>
+        <v>9.73259385131208</v>
       </c>
       <c r="F11">
-        <v>81.28601738755502</v>
+        <v>70.34120785380061</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.912434725744189</v>
+        <v>10.43754127291924</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.818225632452811</v>
+        <v>11.9032283706032</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -831,31 +831,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.27294114271823</v>
+        <v>29.50455575985173</v>
       </c>
       <c r="C12">
-        <v>17.75430661333176</v>
+        <v>10.87979501633361</v>
       </c>
       <c r="D12">
-        <v>7.611713339549037</v>
+        <v>4.891116087258959</v>
       </c>
       <c r="E12">
-        <v>5.432168565382478</v>
+        <v>9.729713325611938</v>
       </c>
       <c r="F12">
-        <v>82.23099834256232</v>
+        <v>70.57442545900138</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.923634889270351</v>
+        <v>10.43779597958884</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.846573302666488</v>
+        <v>11.89528750099576</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -872,31 +872,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.17506914027501</v>
+        <v>29.49255612304242</v>
       </c>
       <c r="C13">
-        <v>17.69532028275849</v>
+        <v>10.86468393055581</v>
       </c>
       <c r="D13">
-        <v>7.590888600401442</v>
+        <v>4.883454123037753</v>
       </c>
       <c r="E13">
-        <v>5.433125635816126</v>
+        <v>9.730330711662329</v>
       </c>
       <c r="F13">
-        <v>82.02740280796831</v>
+        <v>70.52419612836013</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.921200672337395</v>
+        <v>10.43773794065435</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.840402509043315</v>
+        <v>11.8969811371718</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -913,31 +913,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.85560521544456</v>
+        <v>29.45365883250081</v>
       </c>
       <c r="C14">
-        <v>17.50270462314983</v>
+        <v>10.81539165394356</v>
       </c>
       <c r="D14">
-        <v>7.522965251812461</v>
+        <v>4.858388849999115</v>
       </c>
       <c r="E14">
-        <v>5.436280373909922</v>
+        <v>9.732355522438548</v>
       </c>
       <c r="F14">
-        <v>81.36372916869522</v>
+        <v>70.36039382115842</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.913346326342817</v>
+        <v>10.43756079375472</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.820528446836568</v>
+        <v>11.90256760323442</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -954,31 +954,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.65969258131477</v>
+        <v>29.43001532191312</v>
       </c>
       <c r="C15">
-        <v>17.38451955726681</v>
+        <v>10.78519124852997</v>
       </c>
       <c r="D15">
-        <v>7.481349616084182</v>
+        <v>4.842976093273665</v>
       </c>
       <c r="E15">
-        <v>5.438238128196097</v>
+        <v>9.733604527880747</v>
       </c>
       <c r="F15">
-        <v>80.95740838537519</v>
+        <v>70.26006761568</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.908598772929072</v>
+        <v>10.43746160228429</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.808544784555242</v>
+        <v>11.90603799447758</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -995,31 +995,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.53286656937781</v>
+        <v>29.29734718437932</v>
       </c>
       <c r="C16">
-        <v>16.7036953875831</v>
+        <v>10.61207600965674</v>
       </c>
       <c r="D16">
-        <v>7.242571863107394</v>
+        <v>4.753753448949278</v>
       </c>
       <c r="E16">
-        <v>5.449831986441628</v>
+        <v>9.74089640970641</v>
       </c>
       <c r="F16">
-        <v>78.63089840902958</v>
+        <v>69.68535515068059</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.882317523370418</v>
+        <v>10.43703574597403</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.742681350577246</v>
+        <v>11.92666880861482</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1036,31 +1036,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.83734029484783</v>
+        <v>29.21851124231738</v>
       </c>
       <c r="C17">
-        <v>16.28240440775423</v>
+        <v>10.50590448819058</v>
       </c>
       <c r="D17">
-        <v>7.095694734686214</v>
+        <v>4.698232947265939</v>
       </c>
       <c r="E17">
-        <v>5.457264712947123</v>
+        <v>9.745489851147905</v>
       </c>
       <c r="F17">
-        <v>77.20434001338565</v>
+        <v>69.33309253678253</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.866971838610107</v>
+        <v>10.43690147392828</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.704683264602799</v>
+        <v>11.93998820417367</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1077,31 +1077,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.44547212555312</v>
+        <v>29.17411710747698</v>
       </c>
       <c r="C18">
-        <v>16.03858747323883</v>
+        <v>10.44487758185212</v>
       </c>
       <c r="D18">
-        <v>7.011022806850145</v>
+        <v>4.666017177845781</v>
       </c>
       <c r="E18">
-        <v>5.461652454234851</v>
+        <v>9.748176110979266</v>
       </c>
       <c r="F18">
-        <v>76.38369995030867</v>
+        <v>69.13063682386496</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.85841300477472</v>
+        <v>10.43687081210849</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.683674990161956</v>
+        <v>11.94789272183035</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1118,31 +1118,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.32360007056619</v>
+        <v>29.15925036506695</v>
       </c>
       <c r="C19">
-        <v>15.9557624603719</v>
+        <v>10.42422466585995</v>
       </c>
       <c r="D19">
-        <v>6.982317324810472</v>
+        <v>4.655061731176797</v>
       </c>
       <c r="E19">
-        <v>5.463156977829493</v>
+        <v>9.749093238601269</v>
       </c>
       <c r="F19">
-        <v>76.10579350817373</v>
+        <v>69.06211988003177</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.855559494900869</v>
+        <v>10.43686841952421</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.676704127380543</v>
+        <v>11.95061087480808</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1159,31 +1159,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.9115589062196</v>
+        <v>29.22680539483801</v>
       </c>
       <c r="C20">
-        <v>16.32740334538285</v>
+        <v>10.51720314736405</v>
       </c>
       <c r="D20">
-        <v>7.111348952097374</v>
+        <v>4.704172526115094</v>
       </c>
       <c r="E20">
-        <v>5.456461723283581</v>
+        <v>9.744996295572438</v>
       </c>
       <c r="F20">
-        <v>77.35620453745966</v>
+        <v>69.37057630592614</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.868577331838422</v>
+        <v>10.43691094565267</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.708639737204042</v>
+        <v>11.93854512221051</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1200,31 +1200,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.94948634681766</v>
+        <v>29.46504601294622</v>
       </c>
       <c r="C21">
-        <v>17.55932156665047</v>
+        <v>10.82987170027356</v>
       </c>
       <c r="D21">
-        <v>7.542917864106535</v>
+        <v>4.865763572822929</v>
       </c>
       <c r="E21">
-        <v>5.435348423979602</v>
+        <v>9.731758963379859</v>
       </c>
       <c r="F21">
-        <v>81.55862204682923</v>
+        <v>70.40850522423648</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.91563999433604</v>
+        <v>10.43761088409601</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.82632614589973</v>
+        <v>11.90091661068078</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1241,31 +1241,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.27044061213248</v>
+        <v>29.62893925813399</v>
       </c>
       <c r="C22">
-        <v>18.35492386225927</v>
+        <v>11.03396295911024</v>
       </c>
       <c r="D22">
-        <v>7.824364839679843</v>
+        <v>4.968724881732784</v>
       </c>
       <c r="E22">
-        <v>5.422671669955145</v>
+        <v>9.723499501008769</v>
       </c>
       <c r="F22">
-        <v>84.31296697125346</v>
+        <v>71.08730405201142</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.949188733237433</v>
+        <v>10.43848504465946</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.911631669768223</v>
+        <v>11.87849550388944</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1282,31 +1282,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.56615220885378</v>
+        <v>29.54073077834113</v>
       </c>
       <c r="C23">
-        <v>17.93095831488963</v>
+        <v>10.92508763105673</v>
       </c>
       <c r="D23">
-        <v>7.67414460499336</v>
+        <v>4.914021006983321</v>
       </c>
       <c r="E23">
-        <v>5.429328048356949</v>
+        <v>9.727871968597979</v>
       </c>
       <c r="F23">
-        <v>82.84168636466052</v>
+        <v>70.7250202656702</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.93100575133553</v>
+        <v>10.43798026187744</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.865289080217356</v>
+        <v>11.89026327884861</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1323,31 +1323,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.87801078777888</v>
+        <v>29.22305270973305</v>
       </c>
       <c r="C24">
-        <v>16.30706438361689</v>
+        <v>10.51209497761969</v>
       </c>
       <c r="D24">
-        <v>7.104272408824591</v>
+        <v>4.701488163814693</v>
       </c>
       <c r="E24">
-        <v>5.456824399245794</v>
+        <v>9.745219290524117</v>
       </c>
       <c r="F24">
-        <v>77.28754820780701</v>
+        <v>69.35362968172252</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.867850671500708</v>
+        <v>10.43690651856877</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.706848416617847</v>
+        <v>11.93919677018268</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1364,31 +1364,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.20812552072703</v>
+        <v>28.91684298281357</v>
       </c>
       <c r="C25">
-        <v>14.4966336187213</v>
+        <v>10.06856034083792</v>
       </c>
       <c r="D25">
-        <v>6.481933549758086</v>
+        <v>4.461565550641629</v>
       </c>
       <c r="E25">
-        <v>5.490756797772101</v>
+        <v>9.765623593518388</v>
       </c>
       <c r="F25">
-        <v>71.29013444450362</v>
+        <v>67.88089990786592</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.809804770533931</v>
+        <v>10.43752743128698</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.568005089531619</v>
+        <v>12.00128941426046</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_95/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_95/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>28.72393179789144</v>
+        <v>24.24752533316895</v>
       </c>
       <c r="C2">
-        <v>9.747167794820477</v>
+        <v>13.09709201452198</v>
       </c>
       <c r="D2">
-        <v>4.276585547397751</v>
+        <v>6.013173725496622</v>
       </c>
       <c r="E2">
-        <v>9.78211633705458</v>
+        <v>5.518987457792272</v>
       </c>
       <c r="F2">
-        <v>66.8069703912669</v>
+        <v>66.84038728211914</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.43950258765046</v>
+        <v>6.774017376682583</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.05500587233376</v>
+        <v>6.489700940970033</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -462,31 +462,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>28.61399692459365</v>
+        <v>22.90441531182649</v>
       </c>
       <c r="C3">
-        <v>9.534477755564938</v>
+        <v>12.10087249244248</v>
       </c>
       <c r="D3">
-        <v>4.146541706474164</v>
+        <v>5.687762174587307</v>
       </c>
       <c r="E3">
-        <v>9.794217008429278</v>
+        <v>5.539998563709541</v>
       </c>
       <c r="F3">
-        <v>66.08808740486738</v>
+        <v>63.79768151002759</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.44178200816692</v>
+        <v>6.753411965042543</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.0963943050855</v>
+        <v>6.45003081993003</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -503,31 +503,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>28.55689149624337</v>
+        <v>22.07349433727313</v>
       </c>
       <c r="C4">
-        <v>9.4070637022956</v>
+        <v>11.46395529739875</v>
       </c>
       <c r="D4">
-        <v>4.064582800197979</v>
+        <v>5.483971251701536</v>
       </c>
       <c r="E4">
-        <v>9.802104641717648</v>
+        <v>5.553791048732654</v>
       </c>
       <c r="F4">
-        <v>65.6518923055331</v>
+        <v>61.91617684119005</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.44364368826155</v>
+        <v>6.742366796228421</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.1242638691282</v>
+        <v>6.431830226674499</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -544,31 +544,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>28.5362516954</v>
+        <v>21.73356940006052</v>
       </c>
       <c r="C5">
-        <v>9.35603993239258</v>
+        <v>11.19784466481429</v>
       </c>
       <c r="D5">
-        <v>4.030685727209845</v>
+        <v>5.399917940932923</v>
       </c>
       <c r="E5">
-        <v>9.805434356480102</v>
+        <v>5.559631561429647</v>
       </c>
       <c r="F5">
-        <v>65.47556705947579</v>
+        <v>61.1463288394369</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.44451826866731</v>
+        <v>6.738244148078092</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.13623850365967</v>
+        <v>6.425898803085605</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -585,31 +585,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>28.53298380999414</v>
+        <v>21.67705499718828</v>
       </c>
       <c r="C6">
-        <v>9.347624623434696</v>
+        <v>11.15325509764191</v>
       </c>
       <c r="D6">
-        <v>4.025028065369259</v>
+        <v>5.385900371819601</v>
       </c>
       <c r="E6">
-        <v>9.805994235110377</v>
+        <v>5.56061455108482</v>
       </c>
       <c r="F6">
-        <v>65.44637804293765</v>
+        <v>61.01831727852291</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.4446704860639</v>
+        <v>6.737581730972527</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.13826417438754</v>
+        <v>6.425001833227219</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -626,31 +626,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>28.5566024674948</v>
+        <v>22.06891491387514</v>
       </c>
       <c r="C7">
-        <v>9.406371809385734</v>
+        <v>11.46039327013128</v>
       </c>
       <c r="D7">
-        <v>4.064127624220835</v>
+        <v>5.482841748290391</v>
       </c>
       <c r="E7">
-        <v>9.802149079559548</v>
+        <v>5.553868930295841</v>
       </c>
       <c r="F7">
-        <v>65.64950838521575</v>
+        <v>61.90580662476663</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.4436550141152</v>
+        <v>6.742309697031167</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.12442286306496</v>
+        <v>6.431744299602046</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -667,31 +667,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28.68388029844533</v>
+        <v>23.78583454430656</v>
       </c>
       <c r="C8">
-        <v>9.673232263808956</v>
+        <v>12.75869353484896</v>
       </c>
       <c r="D8">
-        <v>4.232203536720889</v>
+        <v>5.901790742845635</v>
       </c>
       <c r="E8">
-        <v>9.786193835927357</v>
+        <v>5.526044218347335</v>
       </c>
       <c r="F8">
-        <v>66.55809279230863</v>
+        <v>65.79409295217492</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.44019245891575</v>
+        <v>6.766562951783474</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.06876652887398</v>
+        <v>6.474705997973168</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -708,31 +708,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.01500827744448</v>
+        <v>27.09816174407761</v>
       </c>
       <c r="C9">
-        <v>10.21740486231156</v>
+        <v>15.11587459996278</v>
       </c>
       <c r="D9">
-        <v>4.543739281661292</v>
+        <v>6.692996867766024</v>
       </c>
       <c r="E9">
-        <v>9.758523066601517</v>
+        <v>5.478798740626034</v>
       </c>
       <c r="F9">
-        <v>68.37569425621066</v>
+        <v>73.31429894681629</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.43708166561323</v>
+        <v>6.828175548773634</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.97913038574788</v>
+        <v>6.61083711775826</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -749,31 +749,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.30647077796345</v>
+        <v>29.61200556514388</v>
       </c>
       <c r="C10">
-        <v>10.62419420524055</v>
+        <v>16.75157598851309</v>
       </c>
       <c r="D10">
-        <v>4.760050035971878</v>
+        <v>7.259308795169246</v>
       </c>
       <c r="E10">
-        <v>9.740378253038157</v>
+        <v>5.448999473776482</v>
       </c>
       <c r="F10">
-        <v>69.72556874423762</v>
+        <v>78.79368762865209</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.43705738439154</v>
+        <v>6.8841060963112</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.92518198382263</v>
+        <v>6.747134629098149</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -790,31 +790,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.4491266366867</v>
+        <v>30.81815497458753</v>
       </c>
       <c r="C11">
-        <v>10.80961680102557</v>
+        <v>17.48011641611891</v>
       </c>
       <c r="D11">
-        <v>4.855444979788985</v>
+        <v>7.515007814298155</v>
       </c>
       <c r="E11">
-        <v>9.73259385131208</v>
+        <v>5.436653263265068</v>
       </c>
       <c r="F11">
-        <v>70.34120785380061</v>
+        <v>81.28601738755437</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.43754127291924</v>
+        <v>6.91243472574422</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.9032283706032</v>
+        <v>6.818225632452825</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -831,31 +831,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.50455575985173</v>
+        <v>31.27294114271842</v>
       </c>
       <c r="C12">
-        <v>10.87979501633361</v>
+        <v>17.75430661333201</v>
       </c>
       <c r="D12">
-        <v>4.891116087258959</v>
+        <v>7.611713339549159</v>
       </c>
       <c r="E12">
-        <v>9.729713325611938</v>
+        <v>5.432168565382486</v>
       </c>
       <c r="F12">
-        <v>70.57442545900138</v>
+        <v>82.230998342563</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.43779597958884</v>
+        <v>6.923634889270327</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.89528750099576</v>
+        <v>6.846573302666364</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -872,31 +872,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.49255612304242</v>
+        <v>31.17506914027506</v>
       </c>
       <c r="C13">
-        <v>10.86468393055581</v>
+        <v>17.69532028275827</v>
       </c>
       <c r="D13">
-        <v>4.883454123037753</v>
+        <v>7.590888600401422</v>
       </c>
       <c r="E13">
-        <v>9.730330711662329</v>
+        <v>5.433125635816132</v>
       </c>
       <c r="F13">
-        <v>70.52419612836013</v>
+        <v>82.02740280796836</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.43773794065435</v>
+        <v>6.92120067233744</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.8969811371718</v>
+        <v>6.840402509043312</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -913,31 +913,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.45365883250081</v>
+        <v>30.85560521544439</v>
       </c>
       <c r="C14">
-        <v>10.81539165394356</v>
+        <v>17.50270462314978</v>
       </c>
       <c r="D14">
-        <v>4.858388849999115</v>
+        <v>7.52296525181239</v>
       </c>
       <c r="E14">
-        <v>9.732355522438548</v>
+        <v>5.436280373909919</v>
       </c>
       <c r="F14">
-        <v>70.36039382115842</v>
+        <v>81.36372916869485</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.43756079375472</v>
+        <v>6.913346326342854</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.90256760323442</v>
+        <v>6.820528446836607</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -954,31 +954,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.43001532191312</v>
+        <v>30.65969258131472</v>
       </c>
       <c r="C15">
-        <v>10.78519124852997</v>
+        <v>17.38451955726696</v>
       </c>
       <c r="D15">
-        <v>4.842976093273665</v>
+        <v>7.481349616084152</v>
       </c>
       <c r="E15">
-        <v>9.733604527880747</v>
+        <v>5.438238128196165</v>
       </c>
       <c r="F15">
-        <v>70.26006761568</v>
+        <v>80.95740838537519</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.43746160228429</v>
+        <v>6.908598772929047</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.90603799447758</v>
+        <v>6.808544784555255</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -995,31 +995,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.29734718437932</v>
+        <v>29.53286656937777</v>
       </c>
       <c r="C16">
-        <v>10.61207600965674</v>
+        <v>16.70369538758324</v>
       </c>
       <c r="D16">
-        <v>4.753753448949278</v>
+        <v>7.242571863107426</v>
       </c>
       <c r="E16">
-        <v>9.74089640970641</v>
+        <v>5.449831986441692</v>
       </c>
       <c r="F16">
-        <v>69.68535515068059</v>
+        <v>78.63089840902957</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.43703574597403</v>
+        <v>6.882317523370427</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.92666880861482</v>
+        <v>6.742681350577253</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1036,31 +1036,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.21851124231738</v>
+        <v>28.83734029484784</v>
       </c>
       <c r="C17">
-        <v>10.50590448819058</v>
+        <v>16.2824044077542</v>
       </c>
       <c r="D17">
-        <v>4.698232947265939</v>
+        <v>7.095694734686302</v>
       </c>
       <c r="E17">
-        <v>9.745489851147905</v>
+        <v>5.457264712946933</v>
       </c>
       <c r="F17">
-        <v>69.33309253678253</v>
+        <v>77.2043400133858</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.43690147392828</v>
+        <v>6.866971838610174</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.93998820417367</v>
+        <v>6.704683264602779</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1077,31 +1077,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.17411710747698</v>
+        <v>28.4454721255531</v>
       </c>
       <c r="C18">
-        <v>10.44487758185212</v>
+        <v>16.0385874732389</v>
       </c>
       <c r="D18">
-        <v>4.666017177845781</v>
+        <v>7.011022806850112</v>
       </c>
       <c r="E18">
-        <v>9.748176110979266</v>
+        <v>5.46165245423465</v>
       </c>
       <c r="F18">
-        <v>69.13063682386496</v>
+        <v>76.38369995030835</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.43687081210849</v>
+        <v>6.858413004774633</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.94789272183035</v>
+        <v>6.683674990161899</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1118,31 +1118,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.15925036506695</v>
+        <v>28.3236000705662</v>
       </c>
       <c r="C19">
-        <v>10.42422466585995</v>
+        <v>15.95576246037184</v>
       </c>
       <c r="D19">
-        <v>4.655061731176797</v>
+        <v>6.982317324810482</v>
       </c>
       <c r="E19">
-        <v>9.749093238601269</v>
+        <v>5.463156977829567</v>
       </c>
       <c r="F19">
-        <v>69.06211988003177</v>
+        <v>76.10579350817403</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.43686841952421</v>
+        <v>6.855559494900863</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.95061087480808</v>
+        <v>6.676704127380566</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1159,31 +1159,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.22680539483801</v>
+        <v>28.91155890621957</v>
       </c>
       <c r="C20">
-        <v>10.51720314736405</v>
+        <v>16.3274033453829</v>
       </c>
       <c r="D20">
-        <v>4.704172526115094</v>
+        <v>7.111348952097235</v>
       </c>
       <c r="E20">
-        <v>9.744996295572438</v>
+        <v>5.456461723283459</v>
       </c>
       <c r="F20">
-        <v>69.37057630592614</v>
+        <v>77.35620453745913</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.43691094565267</v>
+        <v>6.868577331838432</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.93854512221051</v>
+        <v>6.708639737204086</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1200,31 +1200,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.46504601294622</v>
+        <v>30.94948634681772</v>
       </c>
       <c r="C21">
-        <v>10.82987170027356</v>
+        <v>17.55932156665055</v>
       </c>
       <c r="D21">
-        <v>4.865763572822929</v>
+        <v>7.542917864106546</v>
       </c>
       <c r="E21">
-        <v>9.731758963379859</v>
+        <v>5.435348423979607</v>
       </c>
       <c r="F21">
-        <v>70.40850522423648</v>
+        <v>81.55862204682943</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.43761088409601</v>
+        <v>6.915639994336095</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.90091661068078</v>
+        <v>6.826326145899708</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1241,31 +1241,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.62893925813399</v>
+        <v>32.27044061213245</v>
       </c>
       <c r="C22">
-        <v>11.03396295911024</v>
+        <v>18.35492386225934</v>
       </c>
       <c r="D22">
-        <v>4.968724881732784</v>
+        <v>7.824364839679893</v>
       </c>
       <c r="E22">
-        <v>9.723499501008769</v>
+        <v>5.422671669955075</v>
       </c>
       <c r="F22">
-        <v>71.08730405201142</v>
+        <v>84.31296697125417</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.43848504465946</v>
+        <v>6.949188733237352</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.87849550388944</v>
+        <v>6.911631669768159</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1282,31 +1282,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.54073077834113</v>
+        <v>31.56615220885367</v>
       </c>
       <c r="C23">
-        <v>10.92508763105673</v>
+        <v>17.93095831488971</v>
       </c>
       <c r="D23">
-        <v>4.914021006983321</v>
+        <v>7.674144604993286</v>
       </c>
       <c r="E23">
-        <v>9.727871968597979</v>
+        <v>5.429328048356753</v>
       </c>
       <c r="F23">
-        <v>70.7250202656702</v>
+        <v>82.84168636466016</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.43798026187744</v>
+        <v>6.93100575133549</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.89026327884861</v>
+        <v>6.865289080217354</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1323,31 +1323,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.22305270973305</v>
+        <v>28.8780107877789</v>
       </c>
       <c r="C24">
-        <v>10.51209497761969</v>
+        <v>16.30706438361686</v>
       </c>
       <c r="D24">
-        <v>4.701488163814693</v>
+        <v>7.104272408824551</v>
       </c>
       <c r="E24">
-        <v>9.745219290524117</v>
+        <v>5.456824399245855</v>
       </c>
       <c r="F24">
-        <v>69.35362968172252</v>
+        <v>77.28754820780674</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.43690651856877</v>
+        <v>6.867850671500698</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.93919677018268</v>
+        <v>6.706848416617873</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1364,31 +1364,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.91684298281357</v>
+        <v>26.20812552072702</v>
       </c>
       <c r="C25">
-        <v>10.06856034083792</v>
+        <v>14.49663361872127</v>
       </c>
       <c r="D25">
-        <v>4.461565550641629</v>
+        <v>6.481933549758087</v>
       </c>
       <c r="E25">
-        <v>9.765623593518388</v>
+        <v>5.4907567977721</v>
       </c>
       <c r="F25">
-        <v>67.88089990786592</v>
+        <v>71.29013444450372</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.43752743128698</v>
+        <v>6.809804770533908</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.00128941426046</v>
+        <v>6.568005089531617</v>
       </c>
       <c r="M25">
         <v>0</v>
